--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A083B04-C348-49AA-B0F9-0B53075509A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E12F22-9B08-47E4-9048-63549C7EE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" tabRatio="928" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="ForGotPassword" sheetId="2" r:id="rId2"/>
-    <sheet name="DelUser" sheetId="12" r:id="rId3"/>
-    <sheet name="AddUser" sheetId="3" r:id="rId4"/>
-    <sheet name="EmpStatus" sheetId="4" r:id="rId5"/>
-    <sheet name="JobCategory" sheetId="5" r:id="rId6"/>
-    <sheet name="JobTitles" sheetId="6" r:id="rId7"/>
-    <sheet name="PayGrade" sheetId="7" r:id="rId8"/>
-    <sheet name="SearchUser" sheetId="8" r:id="rId9"/>
+    <sheet name="AddUser" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchUser" sheetId="8" r:id="rId4"/>
+    <sheet name="DelUser" sheetId="12" r:id="rId5"/>
+    <sheet name="EmpStatus" sheetId="4" r:id="rId6"/>
+    <sheet name="JobCategory" sheetId="5" r:id="rId7"/>
+    <sheet name="JobTitles" sheetId="6" r:id="rId8"/>
+    <sheet name="PayGrade" sheetId="7" r:id="rId9"/>
     <sheet name="WorkShift" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Admin</t>
   </si>
@@ -130,10 +130,13 @@
     <t>Subhash ingale</t>
   </si>
   <si>
-    <t>subhash19844</t>
-  </si>
-  <si>
     <t>UserRole</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>subhash19876</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -668,9 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -694,35 +695,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6C9767-FCD5-42C7-9F2C-39B6978542D0}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -788,7 +760,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6C9767-FCD5-42C7-9F2C-39B6978542D0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -817,7 +866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -840,7 +889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -882,7 +931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -906,52 +955,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E12F22-9B08-47E4-9048-63549C7EE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755C5A8-1D74-42C3-8DEF-0683CEAD8D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" tabRatio="928" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" tabRatio="928" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>ESS</t>
   </si>
   <si>
-    <t>subhash19876</t>
+    <t>subhsh7979</t>
   </si>
 </sst>
 </file>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6C9767-FCD5-42C7-9F2C-39B6978542D0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755C5A8-1D74-42C3-8DEF-0683CEAD8D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE18A0-6582-4345-B900-B3CED8F26B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" tabRatio="928" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4236" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="928" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Admin</t>
   </si>
@@ -136,7 +136,10 @@
     <t>ESS</t>
   </si>
   <si>
-    <t>subhsh7979</t>
+    <t>JohnToe</t>
+  </si>
+  <si>
+    <t>John M Toe</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +799,7 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
